--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H2">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J2">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>35.69925305736117</v>
+        <v>690.2294942031895</v>
       </c>
       <c r="R2">
-        <v>35.69925305736117</v>
+        <v>6212.065447828706</v>
       </c>
       <c r="S2">
-        <v>0.005883033433554862</v>
+        <v>0.054339487954597</v>
       </c>
       <c r="T2">
-        <v>0.005883033433554862</v>
+        <v>0.05433948795459701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H3">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J3">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>232.0474943173244</v>
+        <v>2441.758299917036</v>
       </c>
       <c r="R3">
-        <v>232.0474943173244</v>
+        <v>21975.82469925332</v>
       </c>
       <c r="S3">
-        <v>0.03824010449316555</v>
+        <v>0.1922315647776703</v>
       </c>
       <c r="T3">
-        <v>0.03824010449316555</v>
+        <v>0.1922315647776703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H4">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J4">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>66.14567608873985</v>
+        <v>954.8803480303837</v>
       </c>
       <c r="R4">
-        <v>66.14567608873985</v>
+        <v>8593.923132273454</v>
       </c>
       <c r="S4">
-        <v>0.01090043041768648</v>
+        <v>0.0751745754211479</v>
       </c>
       <c r="T4">
-        <v>0.01090043041768648</v>
+        <v>0.07517457542114792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H5">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J5">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>67.11268534269006</v>
+        <v>706.6143739488369</v>
       </c>
       <c r="R5">
-        <v>67.11268534269006</v>
+        <v>6359.529365539533</v>
       </c>
       <c r="S5">
-        <v>0.01105978803120308</v>
+        <v>0.05562941541068747</v>
       </c>
       <c r="T5">
-        <v>0.01105978803120308</v>
+        <v>0.05562941541068748</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H6">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J6">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>65.05240984493807</v>
+        <v>716.647312748218</v>
       </c>
       <c r="R6">
-        <v>65.05240984493807</v>
+        <v>6449.825814733962</v>
       </c>
       <c r="S6">
-        <v>0.01072026637185257</v>
+        <v>0.05641927553926333</v>
       </c>
       <c r="T6">
-        <v>0.01072026637185257</v>
+        <v>0.05641927553926333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.70846221002152</v>
+        <v>28.24880233333333</v>
       </c>
       <c r="H7">
-        <v>2.70846221002152</v>
+        <v>84.746407</v>
       </c>
       <c r="I7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="J7">
-        <v>0.08050284416542797</v>
+        <v>0.4537768084967884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>22.44750824666998</v>
+        <v>253.8210068977224</v>
       </c>
       <c r="R7">
-        <v>22.44750824666998</v>
+        <v>2284.389062079502</v>
       </c>
       <c r="S7">
-        <v>0.003699221417965421</v>
+        <v>0.0199824893934223</v>
       </c>
       <c r="T7">
-        <v>0.003699221417965421</v>
+        <v>0.0199824893934223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H8">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I8">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J8">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>102.8210602836867</v>
+        <v>197.1440504688139</v>
       </c>
       <c r="R8">
-        <v>102.8210602836867</v>
+        <v>1774.296454219325</v>
       </c>
       <c r="S8">
-        <v>0.01694432469919028</v>
+        <v>0.01552049984206698</v>
       </c>
       <c r="T8">
-        <v>0.01694432469919028</v>
+        <v>0.01552049984206698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H9">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I9">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J9">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>668.3436587186598</v>
+        <v>697.4174902033111</v>
       </c>
       <c r="R9">
-        <v>668.3436587186598</v>
+        <v>6276.7574118298</v>
       </c>
       <c r="S9">
-        <v>0.1101392256871185</v>
+        <v>0.05490537513465327</v>
       </c>
       <c r="T9">
-        <v>0.1101392256871185</v>
+        <v>0.05490537513465326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H10">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I10">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J10">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>190.512908987129</v>
+        <v>272.7338966311455</v>
       </c>
       <c r="R10">
-        <v>190.512908987129</v>
+        <v>2454.60506968031</v>
       </c>
       <c r="S10">
-        <v>0.0313954415599171</v>
+        <v>0.02147143872474923</v>
       </c>
       <c r="T10">
-        <v>0.0313954415599171</v>
+        <v>0.02147143872474923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H11">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I11">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J11">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>193.298090980588</v>
+        <v>201.8239164939978</v>
       </c>
       <c r="R11">
-        <v>193.298090980588</v>
+        <v>1816.41524844598</v>
       </c>
       <c r="S11">
-        <v>0.0318544236781067</v>
+        <v>0.0158889302346253</v>
       </c>
       <c r="T11">
-        <v>0.0318544236781067</v>
+        <v>0.0158889302346253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H12">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I12">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J12">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>187.3640813581744</v>
+        <v>204.68953468277</v>
       </c>
       <c r="R12">
-        <v>187.3640813581744</v>
+        <v>1842.20581214493</v>
       </c>
       <c r="S12">
-        <v>0.03087653271362062</v>
+        <v>0.01611453088826156</v>
       </c>
       <c r="T12">
-        <v>0.03087653271362062</v>
+        <v>0.01611453088826155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80091829163037</v>
+        <v>8.068451666666666</v>
       </c>
       <c r="H13">
-        <v>7.80091829163037</v>
+        <v>24.205355</v>
       </c>
       <c r="I13">
-        <v>0.2318644532881876</v>
+        <v>0.129608193777841</v>
       </c>
       <c r="J13">
-        <v>0.2318644532881876</v>
+        <v>0.1296081937778409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>64.65335829130142</v>
+        <v>72.49661426255889</v>
       </c>
       <c r="R13">
-        <v>64.65335829130142</v>
+        <v>652.4695283630299</v>
       </c>
       <c r="S13">
-        <v>0.01065450495023447</v>
+        <v>0.005707418953484617</v>
       </c>
       <c r="T13">
-        <v>0.01065450495023447</v>
+        <v>0.005707418953484616</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H14">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J14">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>0.8147860542530725</v>
+        <v>1.571330284924444</v>
       </c>
       <c r="R14">
-        <v>0.8147860542530725</v>
+        <v>14.14197256432</v>
       </c>
       <c r="S14">
-        <v>0.0001342720978128889</v>
+        <v>0.0001237056425543149</v>
       </c>
       <c r="T14">
-        <v>0.0001342720978128889</v>
+        <v>0.0001237056425543149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H15">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J15">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>5.296162975464245</v>
+        <v>5.558743573475556</v>
       </c>
       <c r="R15">
-        <v>5.296162975464245</v>
+        <v>50.02869216128</v>
       </c>
       <c r="S15">
-        <v>0.0008727774725187671</v>
+        <v>0.0004376215186258737</v>
       </c>
       <c r="T15">
-        <v>0.0008727774725187671</v>
+        <v>0.0004376215186258737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H16">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J16">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>1.5096835314635</v>
+        <v>2.173816711601777</v>
       </c>
       <c r="R16">
-        <v>1.5096835314635</v>
+        <v>19.564350404416</v>
       </c>
       <c r="S16">
-        <v>0.0002487872414421729</v>
+        <v>0.0001711374086555814</v>
       </c>
       <c r="T16">
-        <v>0.0002487872414421729</v>
+        <v>0.0001711374086555814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H17">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J17">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>1.531754179641664</v>
+        <v>1.608631005880889</v>
       </c>
       <c r="R17">
-        <v>1.531754179641664</v>
+        <v>14.477679052928</v>
       </c>
       <c r="S17">
-        <v>0.000252424358468788</v>
+        <v>0.0001266422050949383</v>
       </c>
       <c r="T17">
-        <v>0.000252424358468788</v>
+        <v>0.0001266422050949383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H18">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J18">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>1.484731242192796</v>
+        <v>1.631471323072</v>
       </c>
       <c r="R18">
-        <v>1.484731242192796</v>
+        <v>14.683241907648</v>
       </c>
       <c r="S18">
-        <v>0.0002446752463876149</v>
+        <v>0.0001284403478160318</v>
       </c>
       <c r="T18">
-        <v>0.0002446752463876149</v>
+        <v>0.0001284403478160318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0618169022654648</v>
+        <v>0.06430933333333333</v>
       </c>
       <c r="H19">
-        <v>0.0618169022654648</v>
+        <v>0.192928</v>
       </c>
       <c r="I19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="J19">
-        <v>0.001837366026911139</v>
+        <v>0.001033037921119988</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>0.512333315286163</v>
+        <v>0.5778319217564444</v>
       </c>
       <c r="R19">
-        <v>0.512333315286163</v>
+        <v>5.200487295808</v>
       </c>
       <c r="S19">
-        <v>8.442961028090756E-05</v>
+        <v>4.549079837324758E-05</v>
       </c>
       <c r="T19">
-        <v>8.442961028090756E-05</v>
+        <v>4.549079837324758E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H20">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J20">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>304.1182149248936</v>
+        <v>3.253916435726667</v>
       </c>
       <c r="R20">
-        <v>304.1182149248936</v>
+        <v>29.28524792154</v>
       </c>
       <c r="S20">
-        <v>0.05011694847736465</v>
+        <v>0.0002561700919033508</v>
       </c>
       <c r="T20">
-        <v>0.05011694847736465</v>
+        <v>0.0002561700919033509</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H21">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J21">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>1976.788411684361</v>
+        <v>11.51106629157333</v>
       </c>
       <c r="R21">
-        <v>1976.788411684361</v>
+        <v>103.59959662416</v>
       </c>
       <c r="S21">
-        <v>0.325763463406832</v>
+        <v>0.0009062282231471563</v>
       </c>
       <c r="T21">
-        <v>0.325763463406832</v>
+        <v>0.0009062282231471563</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H22">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J22">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>563.4881184988784</v>
+        <v>4.501547506594666</v>
       </c>
       <c r="R22">
-        <v>563.4881184988784</v>
+        <v>40.513927559352</v>
       </c>
       <c r="S22">
-        <v>0.09285963029011526</v>
+        <v>0.0003543919646523223</v>
       </c>
       <c r="T22">
-        <v>0.09285963029011526</v>
+        <v>0.0003543919646523223</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H23">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J23">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>571.7259695165078</v>
+        <v>3.331158903557333</v>
       </c>
       <c r="R23">
-        <v>571.7259695165078</v>
+        <v>29.980430132016</v>
       </c>
       <c r="S23">
-        <v>0.09421718118563363</v>
+        <v>0.000262251136230663</v>
       </c>
       <c r="T23">
-        <v>0.09421718118563363</v>
+        <v>0.0002622511362306631</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>23.073107193021</v>
+        <v>0.133172</v>
       </c>
       <c r="H24">
-        <v>23.073107193021</v>
+        <v>0.399516</v>
       </c>
       <c r="I24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="J24">
-        <v>0.6857953365194732</v>
+        <v>0.002139218662372351</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>554.1746973477856</v>
+        <v>3.378456714984</v>
       </c>
       <c r="R24">
-        <v>554.1746973477856</v>
+        <v>30.406110434856</v>
       </c>
       <c r="S24">
-        <v>0.09132483156688657</v>
+        <v>0.00026597473667933</v>
       </c>
       <c r="T24">
-        <v>0.09132483156688657</v>
+        <v>0.00026597473667933</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.133172</v>
+      </c>
+      <c r="H25">
+        <v>0.399516</v>
+      </c>
+      <c r="I25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="J25">
+        <v>0.002139218662372351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N25">
+        <v>26.955586</v>
+      </c>
+      <c r="O25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P25">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q25">
+        <v>1.196576432930667</v>
+      </c>
+      <c r="R25">
+        <v>10.769187896376</v>
+      </c>
+      <c r="S25">
+        <v>9.420250975952884E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.420250975952884E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H26">
+        <v>77.213701</v>
+      </c>
+      <c r="I26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J26">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.43393833333333</v>
+      </c>
+      <c r="N26">
+        <v>73.301815</v>
+      </c>
+      <c r="O26">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="P26">
+        <v>0.1197493722400791</v>
+      </c>
+      <c r="Q26">
+        <v>628.8782695741461</v>
+      </c>
+      <c r="R26">
+        <v>5659.904426167315</v>
+      </c>
+      <c r="S26">
+        <v>0.04950950870895747</v>
+      </c>
+      <c r="T26">
+        <v>0.04950950870895748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H27">
+        <v>77.213701</v>
+      </c>
+      <c r="I27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J27">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>86.43758666666668</v>
+      </c>
+      <c r="N27">
+        <v>259.31276</v>
+      </c>
+      <c r="O27">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="P27">
+        <v>0.4236258027695808</v>
+      </c>
+      <c r="Q27">
+        <v>2224.721990680529</v>
+      </c>
+      <c r="R27">
+        <v>20022.49791612476</v>
+      </c>
+      <c r="S27">
+        <v>0.1751450131154842</v>
+      </c>
+      <c r="T27">
+        <v>0.1751450131154842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H28">
+        <v>77.213701</v>
+      </c>
+      <c r="I28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J28">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.80250733333333</v>
+      </c>
+      <c r="N28">
+        <v>101.407522</v>
+      </c>
+      <c r="O28">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="P28">
+        <v>0.1656642076314483</v>
+      </c>
+      <c r="Q28">
+        <v>870.0055647621024</v>
+      </c>
+      <c r="R28">
+        <v>7830.050082858922</v>
+      </c>
+      <c r="S28">
+        <v>0.06849266411224327</v>
+      </c>
+      <c r="T28">
+        <v>0.06849266411224328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H29">
+        <v>77.213701</v>
+      </c>
+      <c r="I29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J29">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>25.01395866666667</v>
+      </c>
+      <c r="N29">
+        <v>75.041876</v>
+      </c>
+      <c r="O29">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="P29">
+        <v>0.1225920196207674</v>
+      </c>
+      <c r="Q29">
+        <v>643.8067751047862</v>
+      </c>
+      <c r="R29">
+        <v>5794.260975943076</v>
+      </c>
+      <c r="S29">
+        <v>0.050684780634129</v>
+      </c>
+      <c r="T29">
+        <v>0.050684780634129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="H25">
-        <v>23.073107193021</v>
-      </c>
-      <c r="I25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="J25">
-        <v>0.6857953365194732</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="N25">
-        <v>8.287916354753801</v>
-      </c>
-      <c r="O25">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="P25">
-        <v>0.04595143757112193</v>
-      </c>
-      <c r="Q25">
-        <v>191.2279824600263</v>
-      </c>
-      <c r="R25">
-        <v>191.2279824600263</v>
-      </c>
-      <c r="S25">
-        <v>0.03151328159264113</v>
-      </c>
-      <c r="T25">
-        <v>0.03151328159264113</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H30">
+        <v>77.213701</v>
+      </c>
+      <c r="I30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J30">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.369122</v>
+      </c>
+      <c r="N30">
+        <v>76.107366</v>
+      </c>
+      <c r="O30">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="P30">
+        <v>0.1243326553557499</v>
+      </c>
+      <c r="Q30">
+        <v>652.947933580174</v>
+      </c>
+      <c r="R30">
+        <v>5876.531402221566</v>
+      </c>
+      <c r="S30">
+        <v>0.0514044338437297</v>
+      </c>
+      <c r="T30">
+        <v>0.0514044338437297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>25.73790033333333</v>
+      </c>
+      <c r="H31">
+        <v>77.213701</v>
+      </c>
+      <c r="I31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="J31">
+        <v>0.4134427411418784</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.985195333333333</v>
+      </c>
+      <c r="N31">
+        <v>26.955586</v>
+      </c>
+      <c r="O31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="P31">
+        <v>0.04403594238237437</v>
+      </c>
+      <c r="Q31">
+        <v>231.2600619648651</v>
+      </c>
+      <c r="R31">
+        <v>2081.340557683786</v>
+      </c>
+      <c r="S31">
+        <v>0.01820634072733468</v>
+      </c>
+      <c r="T31">
+        <v>0.01820634072733468</v>
       </c>
     </row>
   </sheetData>
